--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/23.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/23.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2580776075987313</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600875708417721</v>
+        <v>-1.597356988672053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1509682231119124</v>
+        <v>0.1544814337906556</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2450140633101868</v>
+        <v>-0.2459222723431773</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2725974913137903</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533813836745144</v>
+        <v>-1.528672303285415</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09991333889340333</v>
+        <v>0.1022853857092035</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2483604279620721</v>
+        <v>-0.2492229904405448</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2839192866023118</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489805836132698</v>
+        <v>-1.48237725288972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09573904018371392</v>
+        <v>0.09779470915613261</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2582783224453877</v>
+        <v>-0.2592447701858663</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2821248602899163</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.55918623797095</v>
+        <v>-1.551833207645794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1229617008866093</v>
+        <v>0.1246742336905845</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354660633203768</v>
+        <v>-0.235587262792717</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2705394273896051</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.593155931637301</v>
+        <v>-1.587066051656989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083248970776342</v>
+        <v>0.108930894439335</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2612185901639774</v>
+        <v>-0.2615396900647227</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2558440010725349</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479758085071875</v>
+        <v>-1.47414828092356</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1218000747750894</v>
+        <v>0.1215293434862257</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.253071467192125</v>
+        <v>-0.2533138661368053</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2433476390424785</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264420464134531</v>
+        <v>-1.260556247191738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1589170196744809</v>
+        <v>0.157305224094269</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2591141265987983</v>
+        <v>-0.2597185499413778</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2352378491828037</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006299429461114</v>
+        <v>-1.005081925670787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1810115260801787</v>
+        <v>0.1785009655817041</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2563658892130073</v>
+        <v>-0.2573103006857878</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2318657012310674</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5931949630375054</v>
+        <v>-0.5933161625098455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1701161657225353</v>
+        <v>0.167031088244786</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1649578767817125</v>
+        <v>-0.1650664841010822</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2309505032227609</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2195055094303879</v>
+        <v>-0.2216508974927207</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1399186088803816</v>
+        <v>0.1368964921674843</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1290104280894474</v>
+        <v>-0.1295975372216926</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2250379359223685</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2419795827246395</v>
+        <v>0.2389102454381032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1044040154464742</v>
+        <v>0.1030818393845816</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03881755841979669</v>
+        <v>-0.0390615313835983</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2022957190706564</v>
       </c>
       <c r="E13" t="n">
-        <v>0.767308464458744</v>
+        <v>0.7623361380545551</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005223268313876107</v>
+        <v>-0.004656621430207859</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05506481207018284</v>
+        <v>0.05469806561491978</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1541686579654591</v>
       </c>
       <c r="E14" t="n">
-        <v>1.31254554003906</v>
+        <v>1.306413161542472</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2292565578868456</v>
+        <v>-0.2296799690304755</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1591751588103742</v>
+        <v>0.1586761947489219</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.07950574416352972</v>
       </c>
       <c r="E15" t="n">
-        <v>1.874084731658687</v>
+        <v>1.867650141490809</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4409306493193621</v>
+        <v>-0.4411730482640424</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2928015121131961</v>
+        <v>0.2923513426445041</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.01505649934398552</v>
       </c>
       <c r="E16" t="n">
-        <v>2.346306208240106</v>
+        <v>2.338499073398455</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6657588185485884</v>
+        <v>-0.664908848223086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4370745307524959</v>
+        <v>0.4369029626682741</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1170401512216523</v>
       </c>
       <c r="E17" t="n">
-        <v>2.801778547351764</v>
+        <v>2.792727937404285</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.879550752708815</v>
+        <v>-0.8770748206310091</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5563143492866295</v>
+        <v>0.5558027930722067</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2185825037037231</v>
       </c>
       <c r="E18" t="n">
-        <v>3.22471748524526</v>
+        <v>3.215489011137074</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207684944907248</v>
+        <v>-1.205359331655526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6778065891833444</v>
+        <v>0.6770620781389691</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.316970418600838</v>
       </c>
       <c r="E19" t="n">
-        <v>3.598959419563954</v>
+        <v>3.589811220430954</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507129490581734</v>
+        <v>-1.503941314851539</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8387893948143722</v>
+        <v>0.8382101557777335</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.410571090241546</v>
       </c>
       <c r="E20" t="n">
-        <v>3.72435050482413</v>
+        <v>3.712051119410287</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842950405159039</v>
+        <v>-1.840184853562913</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014997687405742</v>
+        <v>1.014780472767002</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4987192833125449</v>
       </c>
       <c r="E21" t="n">
-        <v>3.97426853884689</v>
+        <v>3.961704718220667</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079780470188183</v>
+        <v>-2.076796916943757</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182773959564303</v>
+        <v>1.182959693820617</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5813449800282088</v>
       </c>
       <c r="E22" t="n">
-        <v>4.179382118581825</v>
+        <v>4.166785243554055</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375135714185529</v>
+        <v>-2.373590814417972</v>
       </c>
       <c r="G22" t="n">
-        <v>1.323089894132653</v>
+        <v>1.323215815662357</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6590816675056477</v>
       </c>
       <c r="E23" t="n">
-        <v>4.404347227474604</v>
+        <v>4.392672727651918</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507265962313554</v>
+        <v>-2.505030068151747</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494096053528124</v>
+        <v>1.495016854714085</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7323513273831955</v>
       </c>
       <c r="E24" t="n">
-        <v>4.532031658594516</v>
+        <v>4.520427989632288</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621980475873948</v>
+        <v>-2.619511626882189</v>
       </c>
       <c r="G24" t="n">
-        <v>1.598031684145851</v>
+        <v>1.599075258823273</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8009291750977844</v>
       </c>
       <c r="E25" t="n">
-        <v>4.672799336650679</v>
+        <v>4.662385626144154</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817724706789341</v>
+        <v>-2.816925105075721</v>
       </c>
       <c r="G25" t="n">
-        <v>1.661220681770467</v>
+        <v>1.662286292715587</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8620847363363192</v>
       </c>
       <c r="E26" t="n">
-        <v>4.785873722286678</v>
+        <v>4.776912831429113</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907656289284856</v>
+        <v>-2.907040060798867</v>
       </c>
       <c r="G26" t="n">
-        <v>1.704237050336493</v>
+        <v>1.705710332234031</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9123472635346214</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895568688869244</v>
+        <v>4.889181319275006</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980076909055901</v>
+        <v>-2.980396434937525</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754523813223808</v>
+        <v>1.756585778272711</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9491337110457227</v>
       </c>
       <c r="E28" t="n">
-        <v>4.894932785144238</v>
+        <v>4.889401681951989</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069044404839619</v>
+        <v>-3.070593239654979</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795481364779173</v>
+        <v>1.798374411924123</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9715436375605604</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903567854043694</v>
+        <v>4.899519476863709</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.08268406753525</v>
+        <v>-3.085083659685673</v>
       </c>
       <c r="G29" t="n">
-        <v>1.72683839089925</v>
+        <v>1.729144328911955</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9795161421974918</v>
       </c>
       <c r="E30" t="n">
-        <v>4.845250445599504</v>
+        <v>4.841332712006587</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072401000615793</v>
+        <v>-3.075195671565662</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690598174650423</v>
+        <v>1.693011145963377</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9730881873162078</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719757049096443</v>
+        <v>4.716568086356688</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.060788674548397</v>
+        <v>-3.064879550244657</v>
       </c>
       <c r="G31" t="n">
-        <v>1.631835318794904</v>
+        <v>1.634315972930074</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9519835289448927</v>
       </c>
       <c r="E32" t="n">
-        <v>4.639096439225389</v>
+        <v>4.637357148096352</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.021914337300073</v>
+        <v>-3.026344414116974</v>
       </c>
       <c r="G32" t="n">
-        <v>1.594167467203057</v>
+        <v>1.596903112435878</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9164476028599071</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560494646364996</v>
+        <v>4.560996758464691</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952770825339577</v>
+        <v>-2.957407098661368</v>
       </c>
       <c r="G33" t="n">
-        <v>1.564653034659548</v>
+        <v>1.568413366340336</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8686622247585348</v>
       </c>
       <c r="E34" t="n">
-        <v>4.358189116742461</v>
+        <v>4.358264669660284</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.88046904401219</v>
+        <v>-2.885765618355367</v>
       </c>
       <c r="G34" t="n">
-        <v>1.514142761057009</v>
+        <v>1.518348540149125</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8119209996219411</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133257062251229</v>
+        <v>4.133639548897706</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.84864159036993</v>
+        <v>-2.854749571570137</v>
       </c>
       <c r="G35" t="n">
-        <v>1.393125874934927</v>
+        <v>1.396749266952161</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7494081624861939</v>
       </c>
       <c r="E36" t="n">
-        <v>3.981878921298379</v>
+        <v>3.98340571984604</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.82332585383249</v>
+        <v>-2.829940669189756</v>
       </c>
       <c r="G36" t="n">
-        <v>1.366543840014401</v>
+        <v>1.370916465133375</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6830340835991882</v>
       </c>
       <c r="E37" t="n">
-        <v>3.785759286822555</v>
+        <v>3.787994393974802</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.759534793893976</v>
+        <v>-2.766096879610679</v>
       </c>
       <c r="G37" t="n">
-        <v>1.279539933084506</v>
+        <v>1.283434056390603</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6143702358080552</v>
       </c>
       <c r="E38" t="n">
-        <v>3.715510813438906</v>
+        <v>3.719713444492779</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728122881299739</v>
+        <v>-2.735477485644016</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236202464617734</v>
+        <v>1.240913503847787</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5446505652564891</v>
       </c>
       <c r="E39" t="n">
-        <v>3.505138435819705</v>
+        <v>3.510132798491592</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.745432369576683</v>
+        <v>-2.753636944246463</v>
       </c>
       <c r="G39" t="n">
-        <v>1.160995831001987</v>
+        <v>1.165749368748315</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4744191708156592</v>
       </c>
       <c r="E40" t="n">
-        <v>3.259273501034295</v>
+        <v>3.264554335186259</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.710553679867781</v>
+        <v>-2.719554708212939</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096863995923712</v>
+        <v>1.101634847880374</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4037418561189129</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087121455718517</v>
+        <v>3.092890235798084</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.649895704990216</v>
+        <v>-2.658780255920398</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064846872977334</v>
+        <v>1.069847531725707</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3326523265818916</v>
       </c>
       <c r="E42" t="n">
-        <v>2.97266980335138</v>
+        <v>2.980363608816298</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.618927665788186</v>
+        <v>-2.628000312003363</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9807863818042711</v>
+        <v>0.9855210313211437</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2616354187866295</v>
       </c>
       <c r="E43" t="n">
-        <v>2.838966323111615</v>
+        <v>2.847716295406925</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.601975479851777</v>
+        <v>-2.611692686897127</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9287020890804314</v>
+        <v>0.9333753518515732</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1905555559447626</v>
       </c>
       <c r="E44" t="n">
-        <v>2.709958141910689</v>
+        <v>2.720153063759354</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.530355248803914</v>
+        <v>-2.539554603558356</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8645135893137893</v>
+        <v>0.8693961966280641</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1189789940706783</v>
       </c>
       <c r="E45" t="n">
-        <v>2.51333482131605</v>
+        <v>2.523457338285135</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465018502088284</v>
+        <v>-2.474009299309153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8344513981160675</v>
+        <v>0.8396535313119663</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.0477755417657136</v>
       </c>
       <c r="E46" t="n">
-        <v>2.387227557355681</v>
+        <v>2.398187452497298</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.425254844036425</v>
+        <v>-2.434849277590313</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7711474970955965</v>
+        <v>0.7762599112015811</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.0215445323256368</v>
       </c>
       <c r="E47" t="n">
-        <v>2.224174916580143</v>
+        <v>2.235164718085064</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.290447976392628</v>
+        <v>-2.298816249051022</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7147991865721531</v>
+        <v>0.7198643801044987</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.0874294004114646</v>
       </c>
       <c r="E48" t="n">
-        <v>2.135918090429692</v>
+        <v>2.147894801923669</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.249281080294129</v>
+        <v>-2.258366318662277</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6660581104619561</v>
+        <v>0.671235059351914</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1493442515315452</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982556685384002</v>
+        <v>1.994934771753911</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.197362846587587</v>
+        <v>-2.206546461150816</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5915865437758566</v>
+        <v>0.5968264534306665</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2074100753005401</v>
       </c>
       <c r="E50" t="n">
-        <v>1.889283460293966</v>
+        <v>1.901968480392528</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.149931354386312</v>
+        <v>-2.159130709140753</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5349360215811235</v>
+        <v>0.539958716597194</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2622784665302449</v>
       </c>
       <c r="E51" t="n">
-        <v>1.765382971141661</v>
+        <v>1.778030214781312</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.099855510061252</v>
+        <v>-2.109285458616964</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4899049085398322</v>
+        <v>0.4947623315481661</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3151257375915968</v>
       </c>
       <c r="E52" t="n">
-        <v>1.653803903670898</v>
+        <v>1.666457443387034</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.982151147179947</v>
+        <v>-1.989964578098083</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4543084661116171</v>
+        <v>0.4592666263437142</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.366585158629134</v>
       </c>
       <c r="E53" t="n">
-        <v>1.610208296068233</v>
+        <v>1.623875504098487</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.922608364849824</v>
+        <v>-1.930497348685783</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3832540949378614</v>
+        <v>0.3875905176170448</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.416244697754066</v>
       </c>
       <c r="E54" t="n">
-        <v>1.56653083947126</v>
+        <v>1.581642997054868</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.912095491138657</v>
+        <v>-1.920459828749248</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3489089977110804</v>
+        <v>0.3531714414915627</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4628843336119491</v>
       </c>
       <c r="E55" t="n">
-        <v>1.511350451135822</v>
+        <v>1.527411742249574</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847158545279836</v>
+        <v>-1.854853137754314</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3219082737042884</v>
+        <v>0.3263800620279037</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5058502316008793</v>
       </c>
       <c r="E56" t="n">
-        <v>1.453217202928824</v>
+        <v>1.469780606142271</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.785527826585307</v>
+        <v>-1.792406290145391</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2148623813028713</v>
+        <v>0.217944310742378</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5455170070214053</v>
       </c>
       <c r="E57" t="n">
-        <v>1.462719556364116</v>
+        <v>1.480723187073553</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.783222675582163</v>
+        <v>-1.7901900712226</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2155691158883353</v>
+        <v>0.2191862118290843</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5827607144832688</v>
       </c>
       <c r="E58" t="n">
-        <v>1.447514531652351</v>
+        <v>1.466755341391131</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.768385184335222</v>
+        <v>-1.775088144763281</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2110406628763532</v>
+        <v>0.2148844175705695</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6182891993865828</v>
       </c>
       <c r="E59" t="n">
-        <v>1.43555670838783</v>
+        <v>1.455672672758052</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732145755095955</v>
+        <v>-1.73804439175303</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1372931449860521</v>
+        <v>0.1404852557640499</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6522949265588334</v>
       </c>
       <c r="E60" t="n">
-        <v>1.467972058171896</v>
+        <v>1.490055546443745</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.764374583614148</v>
+        <v>-1.770796581629054</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1170402409522761</v>
+        <v>0.1203976237380105</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6848678012551579</v>
       </c>
       <c r="E61" t="n">
-        <v>1.465376500640871</v>
+        <v>1.488579116507965</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.782721350492028</v>
+        <v>-1.789191356090135</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1292451852188417</v>
+        <v>0.1331424565631822</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7164428711298556</v>
       </c>
       <c r="E62" t="n">
-        <v>1.475785489090033</v>
+        <v>1.500566846135791</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826460980844292</v>
+        <v>-1.833422080408245</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04199258326778062</v>
+        <v>0.04505405045871046</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7475763640592453</v>
       </c>
       <c r="E63" t="n">
-        <v>1.462099392830323</v>
+        <v>1.487974693165385</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.787666131561594</v>
+        <v>-1.793780408838287</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007778129628067574</v>
+        <v>0.01062238218025792</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7784383574974512</v>
       </c>
       <c r="E64" t="n">
-        <v>1.463415272815731</v>
+        <v>1.490149987591023</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815161884582036</v>
+        <v>-1.821354075805232</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02249498013190855</v>
+        <v>-0.01974044666963235</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8080365577581452</v>
       </c>
       <c r="E65" t="n">
-        <v>1.473232430075283</v>
+        <v>1.501714306075219</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.840631087983802</v>
+        <v>-1.846835084350409</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02564301837450993</v>
+        <v>-0.02263349381458301</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8344335693608677</v>
       </c>
       <c r="E66" t="n">
-        <v>1.436933975118968</v>
+        <v>1.465003458109123</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.846059879933168</v>
+        <v>-1.851806623745037</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03396170943058406</v>
+        <v>-0.03091283439262463</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8562100643130964</v>
       </c>
       <c r="E67" t="n">
-        <v>1.402277222106169</v>
+        <v>1.431193527383584</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.85799487992043</v>
+        <v>-1.86327099201503</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05302937706602059</v>
+        <v>-0.05003087063994278</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8721826182693063</v>
       </c>
       <c r="E68" t="n">
-        <v>1.352128972901529</v>
+        <v>1.381271936932412</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.888027164754848</v>
+        <v>-1.892855468409437</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06034384392270489</v>
+        <v>-0.05733431936277798</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8818571318189048</v>
       </c>
       <c r="E69" t="n">
-        <v>1.248630919599524</v>
+        <v>1.276489484027425</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.909483406406858</v>
+        <v>-1.914128336833816</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08259890027877531</v>
+        <v>-0.07962085610127441</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8849421811005713</v>
       </c>
       <c r="E70" t="n">
-        <v>1.264822854300344</v>
+        <v>1.293819434552945</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914969650054152</v>
+        <v>-1.918844885130794</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05152618880517844</v>
+        <v>-0.04798621980137319</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8818155325079563</v>
       </c>
       <c r="E71" t="n">
-        <v>1.257607550648302</v>
+        <v>1.286599408843539</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.949506777613731</v>
+        <v>-1.952731942793276</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07131633121729199</v>
+        <v>-0.06762368235872057</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8732941629450688</v>
       </c>
       <c r="E72" t="n">
-        <v>1.241138588582133</v>
+        <v>1.270322477110169</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.979017275109437</v>
+        <v>-1.982052770984865</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1062327973851051</v>
+        <v>-0.1029635596701636</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8597774156980041</v>
       </c>
       <c r="E73" t="n">
-        <v>1.2458433317357</v>
+        <v>1.275247582940719</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.978824457767078</v>
+        <v>-1.981671858357511</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09361073805139493</v>
+        <v>-0.0901242856977139</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.840740960610741</v>
       </c>
       <c r="E74" t="n">
-        <v>1.240228805530021</v>
+        <v>1.269872307641477</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.98695898858596</v>
+        <v>-1.989316869229668</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07463121548675124</v>
+        <v>-0.07059700447885757</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8153233200334589</v>
       </c>
       <c r="E75" t="n">
-        <v>1.184760371695385</v>
+        <v>1.21332567070875</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.019704095375939</v>
+        <v>-2.022056466952722</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04674589273378825</v>
+        <v>-0.04241104407372616</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.78324769121009</v>
       </c>
       <c r="E76" t="n">
-        <v>1.220097100968585</v>
+        <v>1.248424723094634</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023194482777423</v>
+        <v>-2.024884192304139</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02696362041728121</v>
+        <v>-0.02230452381823117</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7450636287393456</v>
       </c>
       <c r="E77" t="n">
-        <v>1.154978355901254</v>
+        <v>1.181698904504455</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.020744522015118</v>
+        <v>-2.022395668073363</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02849828906054938</v>
+        <v>-0.02409890561651395</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7019711835509767</v>
       </c>
       <c r="E78" t="n">
-        <v>1.174787386542824</v>
+        <v>1.200572967787971</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031401418475885</v>
+        <v>-2.032909328794091</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02335754261038133</v>
+        <v>-0.01901639787383403</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6555848993562916</v>
       </c>
       <c r="E79" t="n">
-        <v>1.160936018275377</v>
+        <v>1.185246743603867</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.008323150119374</v>
+        <v>-2.009985314311467</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04488855017065344</v>
+        <v>-0.04092202198497571</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6063429098257763</v>
       </c>
       <c r="E80" t="n">
-        <v>1.140319515824581</v>
+        <v>1.162056719889744</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970171287647727</v>
+        <v>-1.971535962225895</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02861948853288953</v>
+        <v>-0.02471592111206383</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5546103323783165</v>
       </c>
       <c r="E81" t="n">
-        <v>1.165292903203138</v>
+        <v>1.185386831305662</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923514212854132</v>
+        <v>-1.924474364518126</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008804161814835171</v>
+        <v>-0.005073736497352542</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4996086564669897</v>
       </c>
       <c r="E82" t="n">
-        <v>1.224076221307233</v>
+        <v>1.243416194250655</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951428654960839</v>
+        <v>-1.953509508239199</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01887653845235873</v>
+        <v>0.02282417840858085</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4404561422384183</v>
       </c>
       <c r="E83" t="n">
-        <v>1.311168273307922</v>
+        <v>1.329280511336729</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846743791241373</v>
+        <v>-1.848205267995501</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01151170298379281</v>
+        <v>0.01482501323413075</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3770861422836135</v>
       </c>
       <c r="E84" t="n">
-        <v>1.306008638628298</v>
+        <v>1.321267179990187</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.78571277383206</v>
+        <v>-1.787537061993648</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02205605707738611</v>
+        <v>0.02512539436392245</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3108611277350107</v>
       </c>
       <c r="E85" t="n">
-        <v>1.415295934258447</v>
+        <v>1.429232299558444</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.75745519555691</v>
+        <v>-1.760378936074726</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01593941877201164</v>
+        <v>0.01842951702190933</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2440709649535722</v>
       </c>
       <c r="E86" t="n">
-        <v>1.660430524171574</v>
+        <v>1.674381055643662</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.652875791118571</v>
+        <v>-1.655893972783665</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03188423247078761</v>
+        <v>0.03393832742408501</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1799058430935689</v>
       </c>
       <c r="E87" t="n">
-        <v>1.595716302018417</v>
+        <v>1.605427999996843</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.532882804434895</v>
+        <v>-1.536478651117506</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05274470788538562</v>
+        <v>0.05458473623818613</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1220541102850123</v>
       </c>
       <c r="E88" t="n">
-        <v>1.743321519137511</v>
+        <v>1.75274831965498</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333165749257339</v>
+        <v>-1.336203606161449</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08944138967938986</v>
+        <v>0.09122160530558093</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07442705916242853</v>
       </c>
       <c r="E89" t="n">
-        <v>1.910993906034066</v>
+        <v>1.91991702043272</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158281993756544</v>
+        <v>-1.160732741528409</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1131697279329977</v>
+        <v>0.1149294813106119</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04032774208372473</v>
       </c>
       <c r="E90" t="n">
-        <v>1.932512321441368</v>
+        <v>1.939288473758568</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.918073296683528</v>
+        <v>-0.9197535620955165</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1419900180440133</v>
+        <v>0.1438221763012073</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0222967974099559</v>
       </c>
       <c r="E91" t="n">
-        <v>1.971085234027963</v>
+        <v>1.977223908601035</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6659823292638132</v>
+        <v>-0.6669959975779308</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09531248100184142</v>
+        <v>0.09613726702140299</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02152690487687038</v>
       </c>
       <c r="E92" t="n">
-        <v>1.986863201699881</v>
+        <v>1.993373344785581</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4606562569475023</v>
+        <v>-0.4615251155024603</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1065132010690171</v>
+        <v>0.1075693678994099</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03608812459078469</v>
       </c>
       <c r="E93" t="n">
-        <v>1.960315795200023</v>
+        <v>1.966651222163259</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2401519182444889</v>
+        <v>-0.2404525558966574</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09170010711845634</v>
+        <v>0.09244147012458898</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06148135701021384</v>
       </c>
       <c r="E94" t="n">
-        <v>1.847815926543299</v>
+        <v>1.853402120404795</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05708405032249117</v>
+        <v>-0.05725247036847034</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06645284041279331</v>
+        <v>0.06710763236725439</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09141212479556178</v>
       </c>
       <c r="E95" t="n">
-        <v>1.796709099693787</v>
+        <v>1.801963175520689</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07423636496762522</v>
+        <v>0.07370906856198949</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05394096241757414</v>
+        <v>0.05495935278905569</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1193672223300581</v>
       </c>
       <c r="E96" t="n">
-        <v>1.66876338139974</v>
+        <v>1.673455532400337</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1473951997065599</v>
+        <v>0.146636522490093</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005471963335041616</v>
+        <v>-0.00495411104413369</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1403144294705967</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503522854045593</v>
+        <v>1.506672466307316</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1517064380798025</v>
+        <v>0.1498648357078807</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02072578263956658</v>
+        <v>-0.02019376417656695</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1533537462290677</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390054963629269</v>
+        <v>1.392630058911717</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1796499995402536</v>
+        <v>0.1780633882659825</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05896028111508159</v>
+        <v>-0.0583180813135909</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1610593499953888</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250678718476336</v>
+        <v>1.252153574392995</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1826815603678787</v>
+        <v>0.1808808824931107</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09851538163336787</v>
+        <v>-0.09821002192383554</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1710048833686963</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091727971530908</v>
+        <v>1.092337116930851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2383042480764024</v>
+        <v>0.2378430604738613</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1455612391499241</v>
+        <v>-0.1457406773297524</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1851696008656504</v>
       </c>
       <c r="E101" t="n">
-        <v>0.910462355502799</v>
+        <v>0.9091086990584805</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204501491834887</v>
+        <v>0.2196804538331727</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1713263581464951</v>
+        <v>-0.1715294066131429</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2060558161484422</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8503914897574796</v>
+        <v>0.8497335497647759</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2584343786187169</v>
+        <v>0.2582628105344951</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2092948473905103</v>
+        <v>-0.2096521497310455</v>
       </c>
     </row>
   </sheetData>
